--- a/微调记录/微调记录 - wyh.xlsx
+++ b/微调记录/微调记录 - wyh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\aaa_DL_project\0000PatchTST-TFC\微调记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C19F0-2F6C-4312-8BD7-B147E1183C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A00A4-2B87-4A07-A0FE-0556E1265210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31172" yWindow="12367" windowWidth="34850" windowHeight="18756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>batch size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">self.e_layers =3 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  self.patch_len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,18 @@
   </si>
   <si>
     <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">self.stride </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.d_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">self.e_layers  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,6 +151,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528466</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A043E9-71D0-B903-0E9A-CE31A04427E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9771459" y="327482"/>
+          <a:ext cx="5019755" cy="2736592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>849463</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>527604</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>67471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BD4DAE-0B9E-9B64-F419-8E13E1E64B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11341125" y="3611288"/>
+          <a:ext cx="11032777" cy="6918290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,46 +509,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -459,33 +566,39 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -494,7 +607,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0.99990000000000001</v>
@@ -503,15 +616,98 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>64</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>256</v>
+      </c>
+      <c r="B24">
+        <v>1E-4</v>
+      </c>
+      <c r="C24">
+        <v>1E-4</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:N1"/>
+  <mergeCells count="3">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/微调记录/微调记录 - wyh.xlsx
+++ b/微调记录/微调记录 - wyh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\aaa_DL_project\0000PatchTST-TFC\微调记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A00A4-2B87-4A07-A0FE-0556E1265210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D898775-1551-463B-A501-CE3C42F4D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-399" yWindow="1464" windowWidth="23209" windowHeight="12319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,16 +157,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>461957</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>150158</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207793</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>528466</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>49569</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>717611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -189,7 +189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9771459" y="327482"/>
+          <a:off x="8902572" y="1941129"/>
           <a:ext cx="5019755" cy="2736592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/微调记录/微调记录 - wyh.xlsx
+++ b/微调记录/微调记录 - wyh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\aaa_DL_project\0000PatchTST-TFC\微调记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D898775-1551-463B-A501-CE3C42F4D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CCC47C-F242-4F79-A221-3DDA743961BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-399" yWindow="1464" windowWidth="23209" windowHeight="12319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18635" yWindow="10056" windowWidth="34851" windowHeight="18756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>batch size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,13 +90,46 @@
   <si>
     <t xml:space="preserve">self.e_layers  </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>loss_ratio</t>
+  </si>
+  <si>
+    <t>model_d_model</t>
+  </si>
+  <si>
+    <t>model_patch_len</t>
+  </si>
+  <si>
+    <t>model_stride</t>
+  </si>
+  <si>
+    <t>值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +144,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,14 +173,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -157,16 +221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>207793</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167891</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560863</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>717611</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67301</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -189,52 +253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8902572" y="1941129"/>
-          <a:ext cx="5019755" cy="2736592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>849463</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>64811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>527604</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>67471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BD4DAE-0B9E-9B64-F419-8E13E1E64B1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11341125" y="3611288"/>
-          <a:ext cx="11032777" cy="6918290"/>
+          <a:off x="13761503" y="2142309"/>
+          <a:ext cx="5021385" cy="2699905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -710,4 +730,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E410FFF4-F430-4A6A-87E6-196C2D1C005E}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>128</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>